--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/OneDrive/LCC/Courses/CS297/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Week 1</t>
   </si>
@@ -62,18 +59,6 @@
     <t>Members</t>
   </si>
   <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Name 3</t>
-  </si>
-  <si>
-    <t>Name 4</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -81,6 +66,21 @@
   </si>
   <si>
     <t>Team:</t>
+  </si>
+  <si>
+    <t>Island Adventure 9</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Conner</t>
+  </si>
+  <si>
+    <t>Wesley</t>
   </si>
 </sst>
 </file>
@@ -127,6 +127,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,60 +401,63 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -467,12 +473,15 @@
         <f>F4</f>
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
       <c r="I4">
         <f>H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -493,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -514,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -535,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -556,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -577,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -598,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -619,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -640,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -462,12 +462,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>B4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <f>D4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <f>F4</f>
@@ -486,20 +484,17 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>B5+C4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <f>D5+E4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G13" si="0">F5</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I13" si="1">H5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,19 +502,19 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C13" si="2">B6+C5</f>
-        <v>0</v>
+        <f t="shared" ref="C6:C13" si="1">B6+C5</f>
+        <v>6</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="3">D6+E5</f>
-        <v>0</v>
+        <f t="shared" ref="E6:E13" si="2">D6+E5</f>
+        <v>7</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I5:I13" si="3">H6</f>
         <v>0</v>
       </c>
     </row>
@@ -528,19 +523,19 @@
         <v>3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -549,19 +544,19 @@
         <v>4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -570,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -591,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -612,19 +607,19 @@
         <v>7</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -633,19 +628,19 @@
         <v>8</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -654,19 +649,19 @@
         <v>9</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -401,10 +401,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -461,15 +464,24 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
         <v>7</v>
       </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
       <c r="G4">
         <f>F4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -483,39 +495,62 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
       <c r="C5">
-        <v>6</v>
+        <f>B5+C4</f>
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
       <c r="G5">
         <f t="shared" ref="G5:G13" si="0">F5</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <f>H5+I4</f>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6">
         <f t="shared" ref="C6:C13" si="1">B6+C5</f>
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E13" si="2">D6+E5</f>
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I5:I13" si="3">H6</f>
-        <v>0</v>
+        <f t="shared" ref="I6:I13" si="3">H6+I5</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -524,11 +559,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -536,7 +571,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -545,11 +580,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -557,7 +592,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -566,11 +601,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -578,7 +613,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -587,11 +622,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -599,7 +634,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -608,11 +643,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -620,7 +655,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -629,11 +664,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -641,7 +676,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -650,11 +685,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -662,7 +697,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneStuff\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,9 +548,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
       <c r="I6">
         <f t="shared" ref="I6:I13" si="3">H6+I5</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -571,7 +574,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -592,7 +595,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -613,7 +616,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,7 +637,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -655,7 +658,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,7 +679,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -697,7 +700,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,11 +549,11 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I13" si="3">H6+I5</f>
-        <v>16</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,9 +572,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>2.5</v>
+      </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -595,7 +598,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -616,7 +619,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,7 +640,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -658,7 +661,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -679,7 +682,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -401,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,11 +573,11 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -596,9 +596,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -617,9 +620,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>3.5</v>
+      </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -640,7 +646,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -661,7 +667,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -682,7 +688,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,7 +709,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -621,11 +621,11 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -644,9 +644,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,7 +670,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -688,7 +691,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,7 +712,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneStuff\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,11 +528,11 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C13" si="1">B6+C5</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -560,13 +560,19 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -584,13 +590,19 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -610,11 +622,14 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -634,11 +649,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -658,11 +673,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -679,11 +694,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -700,11 +715,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,11 +660,11 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,9 +683,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,7 +709,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,7 +730,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,11 +561,11 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -591,11 +591,11 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -620,9 +620,12 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -647,9 +650,12 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
@@ -673,7 +679,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
@@ -697,7 +703,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
@@ -718,7 +724,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Allen\Desktop\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,9 +657,12 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -681,9 +684,12 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -707,7 +713,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -728,7 +734,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -685,11 +685,11 @@
         <v>61</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\IslandAdventureCapstone\TimeTrackingDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IslandAdventureCapstone\TimeTrackingDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,11 +690,11 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/TimeTrackingDocument/CS297-TimeTracking.xlsx
+++ b/TimeTrackingDocument/CS297-TimeTracking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -685,11 +685,11 @@
         <v>61</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
